--- a/document/testcase.xlsx
+++ b/document/testcase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="408">
   <si>
     <t>ID</t>
   </si>
@@ -1435,6 +1435,12 @@
   </si>
   <si>
     <t>Function 12: Change password</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Vũ Quang Nhật Huy</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1688,6 +1694,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1700,22 +1724,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2021,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -8179,8 +8188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="D109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.7109375" defaultRowHeight="15"/>
@@ -8190,9 +8199,9 @@
     <col min="3" max="3" width="26.140625" style="11" customWidth="1"/>
     <col min="4" max="4" width="49.7109375" style="11"/>
     <col min="5" max="5" width="52.140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" style="11" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="11" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="11" customWidth="1"/>
     <col min="10" max="16384" width="49.7109375" style="11"/>
   </cols>
@@ -8243,10 +8252,10 @@
       <c r="Y1" s="10"/>
     </row>
     <row r="2" spans="1:32" ht="15.75">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -8412,10 +8421,10 @@
       <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:32" ht="15.75">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -8478,10 +8487,10 @@
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:32" ht="15.75">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -8668,10 +8677,10 @@
       <c r="AF13" s="37"/>
     </row>
     <row r="14" spans="1:32" ht="15.75">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -8830,10 +8839,10 @@
       <c r="AF17" s="37"/>
     </row>
     <row r="18" spans="1:32" ht="15.75">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -8992,10 +9001,10 @@
       <c r="AF21" s="37"/>
     </row>
     <row r="22" spans="1:32" ht="15.75">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -9154,10 +9163,10 @@
       <c r="AF25" s="37"/>
     </row>
     <row r="26" spans="1:32" ht="15.75">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -9274,10 +9283,10 @@
       <c r="AF28" s="37"/>
     </row>
     <row r="29" spans="1:32" ht="15.75">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="39"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -9394,10 +9403,10 @@
       <c r="AF31" s="37"/>
     </row>
     <row r="32" spans="1:32" ht="15.75">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -9514,10 +9523,10 @@
       <c r="AF34" s="37"/>
     </row>
     <row r="35" spans="1:32" ht="15.75">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -9680,10 +9689,10 @@
       <c r="AF38" s="37"/>
     </row>
     <row r="39" spans="1:32" ht="15.75">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="39"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -9804,17 +9813,17 @@
       <c r="AF41" s="37"/>
     </row>
     <row r="42" spans="1:32" ht="15.75">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="41" t="s">
         <v>405</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
@@ -10060,17 +10069,17 @@
       <c r="AF47" s="37"/>
     </row>
     <row r="48" spans="1:32" ht="15.75">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
@@ -10138,17 +10147,17 @@
       <c r="AF49" s="37"/>
     </row>
     <row r="50" spans="1:32" ht="15.75">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
@@ -10173,7 +10182,7 @@
       <c r="AE50" s="37"/>
       <c r="AF50" s="37"/>
     </row>
-    <row r="51" spans="1:32" ht="31.5">
+    <row r="51" spans="1:32" ht="47.25">
       <c r="A51" s="14" t="s">
         <v>378</v>
       </c>
@@ -10260,17 +10269,17 @@
       <c r="AF52" s="37"/>
     </row>
     <row r="53" spans="1:32" ht="15.75">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
       <c r="L53" s="37"/>
@@ -10472,17 +10481,17 @@
       <c r="AF57" s="37"/>
     </row>
     <row r="58" spans="1:32" ht="15.75">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
       <c r="J58" s="37"/>
       <c r="K58" s="37"/>
       <c r="L58" s="37"/>
@@ -10507,7 +10516,7 @@
       <c r="AE58" s="37"/>
       <c r="AF58" s="37"/>
     </row>
-    <row r="59" spans="1:32" ht="63">
+    <row r="59" spans="1:32" ht="110.25">
       <c r="A59" s="14" t="s">
         <v>353</v>
       </c>
@@ -10523,10 +10532,19 @@
       <c r="E59" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="F59" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I59" s="48">
+        <f ca="1">NOW()</f>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J59" s="37"/>
       <c r="K59" s="37"/>
       <c r="L59" s="37"/>
@@ -10551,7 +10569,7 @@
       <c r="AE59" s="37"/>
       <c r="AF59" s="37"/>
     </row>
-    <row r="60" spans="1:32" ht="63">
+    <row r="60" spans="1:32" ht="110.25">
       <c r="A60" s="14" t="s">
         <v>351</v>
       </c>
@@ -10567,10 +10585,19 @@
       <c r="E60" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="F60" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I60" s="48">
+        <f t="shared" ref="I60:I64" ca="1" si="0">NOW()</f>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J60" s="37"/>
       <c r="K60" s="37"/>
       <c r="L60" s="37"/>
@@ -10595,7 +10622,7 @@
       <c r="AE60" s="37"/>
       <c r="AF60" s="37"/>
     </row>
-    <row r="61" spans="1:32" ht="63">
+    <row r="61" spans="1:32" ht="110.25">
       <c r="A61" s="14" t="s">
         <v>349</v>
       </c>
@@ -10611,10 +10638,19 @@
       <c r="E61" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
+      <c r="F61" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I61" s="48">
+        <f t="shared" ca="1" si="0"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J61" s="37"/>
       <c r="K61" s="37"/>
       <c r="L61" s="37"/>
@@ -10639,7 +10675,7 @@
       <c r="AE61" s="37"/>
       <c r="AF61" s="37"/>
     </row>
-    <row r="62" spans="1:32" ht="63">
+    <row r="62" spans="1:32" ht="110.25">
       <c r="A62" s="14" t="s">
         <v>347</v>
       </c>
@@ -10655,10 +10691,19 @@
       <c r="E62" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
+      <c r="F62" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I62" s="48">
+        <f t="shared" ca="1" si="0"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J62" s="37"/>
       <c r="K62" s="37"/>
       <c r="L62" s="37"/>
@@ -10683,7 +10728,7 @@
       <c r="AE62" s="37"/>
       <c r="AF62" s="37"/>
     </row>
-    <row r="63" spans="1:32" ht="63">
+    <row r="63" spans="1:32" ht="110.25">
       <c r="A63" s="14" t="s">
         <v>345</v>
       </c>
@@ -10699,10 +10744,19 @@
       <c r="E63" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
+      <c r="F63" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I63" s="48">
+        <f t="shared" ca="1" si="0"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J63" s="37"/>
       <c r="K63" s="37"/>
       <c r="L63" s="37"/>
@@ -10727,7 +10781,7 @@
       <c r="AE63" s="37"/>
       <c r="AF63" s="37"/>
     </row>
-    <row r="64" spans="1:32" ht="63">
+    <row r="64" spans="1:32" ht="141.75">
       <c r="A64" s="14" t="s">
         <v>343</v>
       </c>
@@ -10743,10 +10797,19 @@
       <c r="E64" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
+      <c r="F64" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I64" s="48">
+        <f t="shared" ca="1" si="0"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J64" s="37"/>
       <c r="K64" s="37"/>
       <c r="L64" s="37"/>
@@ -10772,17 +10835,17 @@
       <c r="AF64" s="37"/>
     </row>
     <row r="65" spans="1:32" ht="15.75">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
       <c r="J65" s="37"/>
       <c r="K65" s="37"/>
       <c r="L65" s="37"/>
@@ -10807,7 +10870,7 @@
       <c r="AE65" s="37"/>
       <c r="AF65" s="37"/>
     </row>
-    <row r="66" spans="1:32" ht="31.5">
+    <row r="66" spans="1:32" ht="141.75">
       <c r="A66" s="10" t="s">
         <v>159</v>
       </c>
@@ -10823,10 +10886,19 @@
       <c r="E66" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F66" s="14"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
+      <c r="F66" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I66" s="48">
+        <f ca="1">NOW()</f>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J66" s="37"/>
       <c r="K66" s="37"/>
       <c r="L66" s="37"/>
@@ -10851,7 +10923,7 @@
       <c r="AE66" s="37"/>
       <c r="AF66" s="37"/>
     </row>
-    <row r="67" spans="1:32" ht="31.5">
+    <row r="67" spans="1:32" ht="141.75">
       <c r="A67" s="10" t="s">
         <v>163</v>
       </c>
@@ -10867,10 +10939,19 @@
       <c r="E67" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
+      <c r="F67" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I67" s="48">
+        <f ca="1">NOW()</f>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J67" s="37"/>
       <c r="K67" s="37"/>
       <c r="L67" s="37"/>
@@ -10896,17 +10977,17 @@
       <c r="AF67" s="37"/>
     </row>
     <row r="68" spans="1:32" ht="15.75">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
       <c r="J68" s="37"/>
       <c r="K68" s="37"/>
       <c r="L68" s="37"/>
@@ -10931,7 +11012,7 @@
       <c r="AE68" s="37"/>
       <c r="AF68" s="37"/>
     </row>
-    <row r="69" spans="1:32" ht="78.75">
+    <row r="69" spans="1:32" ht="110.25">
       <c r="A69" s="10" t="s">
         <v>332</v>
       </c>
@@ -10947,10 +11028,19 @@
       <c r="E69" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
+      <c r="F69" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I69" s="48">
+        <f ca="1">NOW()</f>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J69" s="37"/>
       <c r="K69" s="37"/>
       <c r="L69" s="37"/>
@@ -10975,7 +11065,7 @@
       <c r="AE69" s="37"/>
       <c r="AF69" s="37"/>
     </row>
-    <row r="70" spans="1:32" ht="78.75">
+    <row r="70" spans="1:32" ht="110.25">
       <c r="A70" s="10" t="s">
         <v>328</v>
       </c>
@@ -10991,10 +11081,19 @@
       <c r="E70" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
+      <c r="F70" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I70" s="48">
+        <f t="shared" ref="I70:I76" ca="1" si="1">NOW()</f>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J70" s="37"/>
       <c r="K70" s="37"/>
       <c r="L70" s="37"/>
@@ -11019,7 +11118,7 @@
       <c r="AE70" s="37"/>
       <c r="AF70" s="37"/>
     </row>
-    <row r="71" spans="1:32" ht="78.75">
+    <row r="71" spans="1:32" ht="110.25">
       <c r="A71" s="10" t="s">
         <v>325</v>
       </c>
@@ -11035,10 +11134,19 @@
       <c r="E71" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
+      <c r="F71" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I71" s="48">
+        <f t="shared" ca="1" si="1"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J71" s="37"/>
       <c r="K71" s="37"/>
       <c r="L71" s="37"/>
@@ -11063,7 +11171,7 @@
       <c r="AE71" s="37"/>
       <c r="AF71" s="37"/>
     </row>
-    <row r="72" spans="1:32" ht="78.75">
+    <row r="72" spans="1:32" ht="110.25">
       <c r="A72" s="10" t="s">
         <v>321</v>
       </c>
@@ -11079,10 +11187,19 @@
       <c r="E72" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="F72" s="14"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
+      <c r="F72" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I72" s="48">
+        <f t="shared" ca="1" si="1"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J72" s="37"/>
       <c r="K72" s="37"/>
       <c r="L72" s="37"/>
@@ -11107,7 +11224,7 @@
       <c r="AE72" s="37"/>
       <c r="AF72" s="37"/>
     </row>
-    <row r="73" spans="1:32" ht="78.75">
+    <row r="73" spans="1:32" ht="110.25">
       <c r="A73" s="10" t="s">
         <v>317</v>
       </c>
@@ -11123,10 +11240,19 @@
       <c r="E73" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
+      <c r="F73" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I73" s="48">
+        <f t="shared" ca="1" si="1"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J73" s="37"/>
       <c r="K73" s="37"/>
       <c r="L73" s="37"/>
@@ -11151,7 +11277,7 @@
       <c r="AE73" s="37"/>
       <c r="AF73" s="37"/>
     </row>
-    <row r="74" spans="1:32" ht="78.75">
+    <row r="74" spans="1:32" ht="173.25">
       <c r="A74" s="10" t="s">
         <v>313</v>
       </c>
@@ -11167,10 +11293,19 @@
       <c r="E74" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="F74" s="14"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
+      <c r="F74" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I74" s="48">
+        <f t="shared" ca="1" si="1"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J74" s="37"/>
       <c r="K74" s="37"/>
       <c r="L74" s="37"/>
@@ -11196,17 +11331,17 @@
       <c r="AF74" s="37"/>
     </row>
     <row r="75" spans="1:32" ht="15.75">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="36"/>
@@ -11247,10 +11382,19 @@
       <c r="E76" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="F76" s="14"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
+      <c r="F76" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I76" s="48">
+        <f t="shared" ca="1" si="1"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="36"/>
@@ -11276,17 +11420,17 @@
       <c r="AF76" s="37"/>
     </row>
     <row r="77" spans="1:32" ht="15.75">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="36"/>
@@ -11328,7 +11472,7 @@
         <v>240</v>
       </c>
       <c r="F78" s="14"/>
-      <c r="G78" s="43"/>
+      <c r="G78" s="39"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="36"/>
@@ -11372,7 +11516,7 @@
         <v>240</v>
       </c>
       <c r="F79" s="14"/>
-      <c r="G79" s="43"/>
+      <c r="G79" s="39"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="36"/>
@@ -11409,7 +11553,7 @@
         <v>240</v>
       </c>
       <c r="F80" s="14"/>
-      <c r="G80" s="43"/>
+      <c r="G80" s="39"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="36"/>
@@ -11446,7 +11590,7 @@
         <v>240</v>
       </c>
       <c r="F81" s="14"/>
-      <c r="G81" s="43"/>
+      <c r="G81" s="39"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="36"/>
@@ -11467,17 +11611,17 @@
       <c r="Y81" s="10"/>
     </row>
     <row r="82" spans="1:25" ht="15.75">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="36"/>
@@ -12197,10 +12341,19 @@
       <c r="E103" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="19"/>
+      <c r="F103" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I103" s="19">
+        <f ca="1">NOW()</f>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J103" s="33"/>
       <c r="K103" s="33"/>
       <c r="L103" s="33"/>
@@ -12234,10 +12387,19 @@
       <c r="E104" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="19"/>
+      <c r="F104" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I104" s="19">
+        <f t="shared" ref="I104:I115" ca="1" si="2">NOW()</f>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="36"/>
@@ -12271,10 +12433,19 @@
       <c r="E105" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="19"/>
+      <c r="F105" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I105" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J105" s="33"/>
       <c r="K105" s="33"/>
       <c r="L105" s="33"/>
@@ -12307,6 +12478,19 @@
       </c>
       <c r="E106" s="6" t="s">
         <v>276</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I106" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>42558.843458680552</v>
       </c>
       <c r="J106" s="36"/>
       <c r="K106" s="36"/>
@@ -12372,10 +12556,19 @@
       <c r="E108" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="19"/>
+      <c r="F108" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I108" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J108" s="36"/>
       <c r="K108" s="36"/>
       <c r="L108" s="36"/>
@@ -12440,10 +12633,19 @@
       <c r="E110" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="19"/>
+      <c r="F110" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I110" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J110" s="36"/>
       <c r="K110" s="36"/>
       <c r="L110" s="36"/>
@@ -12477,6 +12679,19 @@
       <c r="E111" s="18" t="s">
         <v>288</v>
       </c>
+      <c r="F111" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I111" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J111" s="36"/>
       <c r="K111" s="36"/>
       <c r="L111" s="36"/>
@@ -12510,6 +12725,19 @@
       <c r="E112" s="18" t="s">
         <v>288</v>
       </c>
+      <c r="F112" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I112" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J112" s="33"/>
       <c r="K112" s="33"/>
       <c r="L112" s="33"/>
@@ -12543,10 +12771,19 @@
       <c r="E113" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
+      <c r="F113" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I113" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J113" s="36"/>
       <c r="K113" s="36"/>
       <c r="L113" s="36"/>
@@ -12611,10 +12848,19 @@
       <c r="E115" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="19"/>
+      <c r="F115" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I115" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>42558.843458680552</v>
+      </c>
       <c r="J115" s="33"/>
       <c r="K115" s="33"/>
       <c r="L115" s="33"/>
@@ -37442,6 +37688,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A48:B48"/>
@@ -37450,17 +37707,6 @@
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/document/testcase.xlsx
+++ b/document/testcase.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ocha\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="630" yWindow="540" windowWidth="17895" windowHeight="10935" activeTab="1"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Function list" sheetId="1" r:id="rId1"/>
     <sheet name="Test cases" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="409">
   <si>
     <t>ID</t>
   </si>
@@ -1719,6 +1724,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1766,7 +1774,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1801,7 +1809,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8170,8 +8178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.7109375" defaultRowHeight="15"/>
@@ -11688,8 +11696,7 @@
         <v>407</v>
       </c>
       <c r="I76" s="35">
-        <f t="shared" ref="I70:I76" ca="1" si="0">NOW()</f>
-        <v>42561.90891435185</v>
+        <v>42563.546574074076</v>
       </c>
       <c r="J76" s="30"/>
       <c r="K76" s="30"/>
@@ -11767,10 +11774,18 @@
       <c r="E78" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+      <c r="F78" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I78" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J78" s="30"/>
       <c r="K78" s="30"/>
       <c r="L78" s="30"/>
@@ -11811,10 +11826,18 @@
       <c r="E79" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="F79" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I79" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J79" s="30"/>
       <c r="K79" s="30"/>
       <c r="L79" s="30"/>
@@ -11848,10 +11871,18 @@
       <c r="E80" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F80" s="15"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="F80" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I80" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J80" s="30"/>
       <c r="K80" s="30"/>
       <c r="L80" s="30"/>
@@ -11885,10 +11916,18 @@
       <c r="E81" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="F81" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I81" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J81" s="30"/>
       <c r="K81" s="30"/>
       <c r="L81" s="30"/>
@@ -11951,10 +11990,18 @@
       <c r="E83" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="F83" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I83" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J83" s="30"/>
       <c r="K83" s="30"/>
       <c r="L83" s="30"/>
@@ -12019,10 +12066,18 @@
       <c r="E85" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="16"/>
+      <c r="F85" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I85" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J85" s="30"/>
       <c r="K85" s="30"/>
       <c r="L85" s="30"/>
@@ -12056,10 +12111,18 @@
       <c r="E86" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F86" s="15"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="16"/>
+      <c r="F86" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I86" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J86" s="30"/>
       <c r="K86" s="30"/>
       <c r="L86" s="30"/>
@@ -12093,10 +12156,18 @@
       <c r="E87" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F87" s="15"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="16"/>
+      <c r="F87" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I87" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J87" s="30"/>
       <c r="K87" s="30"/>
       <c r="L87" s="30"/>
@@ -12130,10 +12201,18 @@
       <c r="E88" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="16"/>
+      <c r="F88" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I88" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J88" s="30"/>
       <c r="K88" s="30"/>
       <c r="L88" s="30"/>
@@ -12198,10 +12277,18 @@
       <c r="E90" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F90" s="15"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="16"/>
+      <c r="F90" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I90" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J90" s="30"/>
       <c r="K90" s="30"/>
       <c r="L90" s="30"/>
@@ -12266,10 +12353,18 @@
       <c r="E92" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="F92" s="15"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="16"/>
+      <c r="F92" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I92" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J92" s="24"/>
       <c r="K92" s="24"/>
       <c r="L92" s="24"/>
@@ -12303,8 +12398,18 @@
       <c r="E93" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F93" s="15"/>
-      <c r="G93" s="6"/>
+      <c r="F93" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I93" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J93" s="24"/>
       <c r="K93" s="24"/>
       <c r="L93" s="24"/>
@@ -12338,8 +12443,18 @@
       <c r="E94" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="6"/>
+      <c r="F94" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I94" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J94" s="24"/>
       <c r="K94" s="24"/>
       <c r="L94" s="24"/>
@@ -12404,10 +12519,18 @@
       <c r="E96" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="F96" s="15"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="16"/>
+      <c r="F96" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I96" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
       <c r="L96" s="24"/>
@@ -12472,10 +12595,18 @@
       <c r="E98" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="F98" s="15"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="16"/>
+      <c r="F98" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I98" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J98" s="24"/>
       <c r="K98" s="24"/>
       <c r="L98" s="24"/>
@@ -12509,8 +12640,18 @@
       <c r="E99" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F99" s="15"/>
-      <c r="G99" s="6"/>
+      <c r="F99" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I99" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J99" s="27"/>
       <c r="K99" s="27"/>
       <c r="L99" s="27"/>
@@ -12575,10 +12716,18 @@
       <c r="E101" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F101" s="15"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="16"/>
+      <c r="F101" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I101" s="35">
+        <v>42563.546574074076</v>
+      </c>
       <c r="J101" s="27"/>
       <c r="K101" s="27"/>
       <c r="L101" s="27"/>
@@ -12654,7 +12803,7 @@
       </c>
       <c r="I103" s="16">
         <f ca="1">NOW()</f>
-        <v>42561.90891435185</v>
+        <v>42571.551646874999</v>
       </c>
       <c r="J103" s="27"/>
       <c r="K103" s="27"/>
@@ -12699,8 +12848,8 @@
         <v>407</v>
       </c>
       <c r="I104" s="16">
-        <f t="shared" ref="I104:I115" ca="1" si="1">NOW()</f>
-        <v>42561.90891435185</v>
+        <f t="shared" ref="I104:I115" ca="1" si="0">NOW()</f>
+        <v>42571.551646874999</v>
       </c>
       <c r="J104" s="30"/>
       <c r="K104" s="30"/>
@@ -12745,8 +12894,8 @@
         <v>407</v>
       </c>
       <c r="I105" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>42561.90891435185</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42571.551646874999</v>
       </c>
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
@@ -12791,8 +12940,8 @@
         <v>407</v>
       </c>
       <c r="I106" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>42561.90891435185</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42571.551646874999</v>
       </c>
       <c r="J106" s="30"/>
       <c r="K106" s="30"/>
@@ -12868,8 +13017,8 @@
         <v>407</v>
       </c>
       <c r="I108" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>42561.90891435185</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42571.551646874999</v>
       </c>
       <c r="J108" s="30"/>
       <c r="K108" s="30"/>
@@ -12945,8 +13094,8 @@
         <v>407</v>
       </c>
       <c r="I110" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>42561.90891435185</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42571.551646874999</v>
       </c>
       <c r="J110" s="30"/>
       <c r="K110" s="30"/>
@@ -12991,8 +13140,8 @@
         <v>407</v>
       </c>
       <c r="I111" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>42561.90891435185</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42571.551646874999</v>
       </c>
       <c r="J111" s="30"/>
       <c r="K111" s="30"/>
@@ -13037,8 +13186,8 @@
         <v>407</v>
       </c>
       <c r="I112" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>42561.90891435185</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42571.551646874999</v>
       </c>
       <c r="J112" s="27"/>
       <c r="K112" s="27"/>
@@ -13083,8 +13232,8 @@
         <v>407</v>
       </c>
       <c r="I113" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>42561.90891435185</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42571.551646874999</v>
       </c>
       <c r="J113" s="30"/>
       <c r="K113" s="30"/>
@@ -13160,8 +13309,8 @@
         <v>407</v>
       </c>
       <c r="I115" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>42561.90891435185</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42571.551646874999</v>
       </c>
       <c r="J115" s="27"/>
       <c r="K115" s="27"/>
